--- a/biology/Biologie cellulaire et moléculaire/Méthylase/Méthylase.xlsx
+++ b/biology/Biologie cellulaire et moléculaire/Méthylase/Méthylase.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>M%C3%A9thylase</t>
+          <t>Méthylase</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La Méthylase est une enzyme qui attache un groupe méthyle à une molécule. On la retrouve dans les procaryotes et les eucaryotes.
 Les bactéries utilisent un méthyle afin de distinguer leur propre génome du matériel génétique étranger. De ce fait, elles protègent leur ADN pour éviter qu'il soit coupé par leur propre système immunitaire. Elles rajoutent un groupement méthyle sur un ou plusieurs nucléotides du site de restriction. 
